--- a/datas/test.xlsx
+++ b/datas/test.xlsx
@@ -2196,930 +2196,734 @@
   </sheetData>
   <autoFilter ref="A1:H29"/>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
-    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId897"/>
-    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId898"/>
-    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId899"/>
-    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId900"/>
-    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId901"/>
-    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId902"/>
-    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId903"/>
-    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId904"/>
-    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId905"/>
-    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId906"/>
-    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId907"/>
-    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId908"/>
-    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId909"/>
-    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId910"/>
-    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId911"/>
-    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId912"/>
-    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId913"/>
-    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId914"/>
-    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId915"/>
-    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId916"/>
-    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId917"/>
-    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId918"/>
-    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId919"/>
-    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId920"/>
-    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId921"/>
-    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId922"/>
-    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId923"/>
-    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId924"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
+    <hyperlink display="/member/register" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId701"/>
+    <hyperlink display="/member/register" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId702"/>
+    <hyperlink display="/member/register" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId703"/>
+    <hyperlink display="/member/register" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId704"/>
+    <hyperlink display="/member/register" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId705"/>
+    <hyperlink display="/member/register" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId706"/>
+    <hyperlink display="/member/register" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId707"/>
+    <hyperlink display="/member/register" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId708"/>
+    <hyperlink display="/member/register" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId709"/>
+    <hyperlink display="/member/register" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId710"/>
+    <hyperlink display="/member/register" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId711"/>
+    <hyperlink display="/member/register" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId712"/>
+    <hyperlink display="/member/register" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId713"/>
+    <hyperlink display="/member/register" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId714"/>
+    <hyperlink display="/member/register" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId715"/>
+    <hyperlink display="/member/register" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId716"/>
+    <hyperlink display="/member/register" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId717"/>
+    <hyperlink display="/member/register" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId718"/>
+    <hyperlink display="/member/register" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId719"/>
+    <hyperlink display="/member/register" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId720"/>
+    <hyperlink display="/member/register" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId721"/>
+    <hyperlink display="/member/register" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId722"/>
+    <hyperlink display="/member/register" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId723"/>
+    <hyperlink display="/member/register" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId724"/>
+    <hyperlink display="/member/register" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId725"/>
+    <hyperlink display="/member/register" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId726"/>
+    <hyperlink display="/member/register" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId727"/>
+    <hyperlink display="/member/register" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId728"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3831,534 +3635,422 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
-    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId513"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId514"/>
-    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId515"/>
-    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId516"/>
-    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId517"/>
-    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId518"/>
-    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId519"/>
-    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId520"/>
-    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId521"/>
-    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId522"/>
-    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId523"/>
-    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId524"/>
-    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId525"/>
-    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId526"/>
-    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId527"/>
-    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId528"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
+    <hyperlink display="/member/login" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId401"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId402"/>
+    <hyperlink display="/member/login" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId403"/>
+    <hyperlink display="/member/login" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId404"/>
+    <hyperlink display="/member/login" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId405"/>
+    <hyperlink display="/member/login" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId406"/>
+    <hyperlink display="/member/login" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId407"/>
+    <hyperlink display="/member/login" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId408"/>
+    <hyperlink display="/member/login" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId409"/>
+    <hyperlink display="/member/login" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId410"/>
+    <hyperlink display="/member/login" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId411"/>
+    <hyperlink display="/member/login" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId412"/>
+    <hyperlink display="/member/login" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId413"/>
+    <hyperlink display="/member/login" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId414"/>
+    <hyperlink display="/member/login" ref="C16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId415"/>
+    <hyperlink display="/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId416"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -5686,72 +5378,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="C2" r:id="rId65"/>
-    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId66"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
+    <hyperlink display="/member/recharge" ref="C2" r:id="rId51"/>
+    <hyperlink display="/member/login" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId52"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7000,1029 +6678,812 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId993"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId994"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId995"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId996"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId997"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId998"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId999"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1000"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1001"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1002"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1003"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1004"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1005"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1006"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId1007"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1008"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1009"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1010"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1011"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1012"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1013"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1014"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1015"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1016"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1017"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1018"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1019"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1020"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1021"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId1022"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId1023"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId776"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId777"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId778"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId779"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId780"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId781"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId782"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId783"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId784"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId785"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId786"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId787"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId788"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId789"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C16" r:id="rId790"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId791"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId792"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId793"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId794"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId795"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId796"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId797"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId798"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId799"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId800"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId801"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId802"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId803"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C30" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId804"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C31" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId805"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="C32" r:id="rId806"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -9490,7 +8951,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"52012224.34","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518519.26","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -9528,7 +8989,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"52012224.34","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518519.26","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -9756,7 +9217,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"52012174.23","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518469.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -9908,7 +9369,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"51512174.23","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018469.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -9946,7 +9407,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"51512084.23","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018379.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -9984,7 +9445,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"51512084.23","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018379.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -10212,7 +9673,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"51512034.12","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018329.04","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -10364,7 +9825,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"51012034.12","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"82518329.04","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">

--- a/datas/test.xlsx
+++ b/datas/test.xlsx
@@ -8951,7 +8951,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518519.26","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84518679.84","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518519.26","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84518679.84","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518469.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84518629.73","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018469.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84018629.73","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018379.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84018539.73","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018379.15","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84018539.73","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83018329.04","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"84018489.62","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"82518329.04","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"83518489.62","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
